--- a/data/case1/20/V1_5.xlsx
+++ b/data/case1/20/V1_5.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999998872199447</v>
+        <v>0.99999999613111856</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99545444165293384</v>
+        <v>0.99430578860461583</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97482389454240348</v>
+        <v>0.9739171963972082</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.97046686472903954</v>
+        <v>0.96474593543879761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.96319639264670953</v>
+        <v>0.952506760081125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94576938458696658</v>
+        <v>0.92270403050999961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.94500119202516064</v>
+        <v>0.91887204107486364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.944372915987443</v>
+        <v>0.91306441755965384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9474187732103575</v>
+        <v>0.91075849693249755</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.95145601903403243</v>
+        <v>0.90939039230127783</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94986040148647877</v>
+        <v>0.90927368304865142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.94708132546235468</v>
+        <v>0.9093079996104958</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93579673636056293</v>
+        <v>0.89801900819968394</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93162999777264388</v>
+        <v>0.89385118492574178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.92903882828857909</v>
+        <v>0.8912594486716473</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.92653253461884721</v>
+        <v>0.88875278428666671</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.92282482411384481</v>
+        <v>0.88504466589067532</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.9217159410576119</v>
+        <v>0.88393573032410844</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99440129870756544</v>
+        <v>0.99052613639868758</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98728442931889782</v>
+        <v>0.95933794276716866</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98588596879889256</v>
+        <v>0.95057254528950608</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98462146068756207</v>
+        <v>0.94930801857399516</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96714588676889091</v>
+        <v>0.96688159818500308</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95278990321767509</v>
+        <v>0.95385991292016503</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94633279511758228</v>
+        <v>0.9474027771284983</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94308144774039582</v>
+        <v>0.91904618196897025</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93958314070541693</v>
+        <v>0.91419666425008939</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.924367085339872</v>
+        <v>0.89271406938106135</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.91373687184554897</v>
+        <v>0.87743899662846103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.90716722357042645</v>
+        <v>0.8708677837873946</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8995141683971658</v>
+        <v>0.86321326051440395</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.89783492278749288</v>
+        <v>0.86153387415924443</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.89731492912743804</v>
+        <v>0.86101385265663244</v>
       </c>
     </row>
   </sheetData>
